--- a/Data/Exports/NPO-CEOS-2.xlsx
+++ b/Data/Exports/NPO-CEOS-2.xlsx
@@ -77,19 +77,16 @@
     <x:t>Items</x:t>
   </x:si>
   <x:si>
-    <x:t>Corporate Express Office Supply</x:t>
+    <x:t>Vision Operations</x:t>
   </x:si>
   <x:si>
     <x:t>1701 S Figueroa St, Los Angeles, CA 90015</x:t>
   </x:si>
   <x:si>
-    <x:t>Vision Operations</x:t>
-  </x:si>
-  <x:si>
     <x:t>1234, West Dr, NY 10001</x:t>
   </x:si>
   <x:si>
-    <x:t>2016-11-01</x:t>
+    <x:t>01-Nov-2016</x:t>
   </x:si>
   <x:si>
     <x:t>CEOS3991</x:t>
@@ -125,6 +122,9 @@
 "Address Line 1","Dr NY 10001"
 "City","West"
 "Zip Postal Code","1234"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2016-11-01</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -555,37 +555,37 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
+      <x:c r="K2" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="s">
+      <x:c r="N2" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="s">
+      <x:c r="O2" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="O2" s="0" t="s">
+      <x:c r="P2" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="P2" s="0" t="s">
+      <x:c r="Q2" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="Q2" s="0" t="s">
+      <x:c r="S2" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -675,40 +675,40 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="s">
+      <x:c r="F2" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
+      <x:c r="K2" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="s">
+      <x:c r="N2" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="s">
+      <x:c r="O2" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="O2" s="0" t="s">
+      <x:c r="P2" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="P2" s="0" t="s">
+      <x:c r="Q2" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="Q2" s="0" t="s">
+      <x:c r="S2" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
